--- a/medicine/Hématologie/Incompatibilité_fœto-maternelle/Incompatibilité_fœto-maternelle.xlsx
+++ b/medicine/Hématologie/Incompatibilité_fœto-maternelle/Incompatibilité_fœto-maternelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incompatibilit%C3%A9_f%C5%93to-maternelle</t>
+          <t>Incompatibilité_fœto-maternelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'incompatibilité fœto-maternelle résulte d'une différence entre les antigènes des éléments figurés du sang d'une mère et de son fœtus susceptible d'entraîner la formation d'anticorps chez la mère.
 Lorsque ces anticorps existent, ils passent la barrière placentaire, et détruisent les éléments figurés reconnus, érythrocytes, plaquettes ou leucocytes. 
